--- a/report/Custom Report - Asset Stasiun Pandu.xlsx
+++ b/report/Custom Report - Asset Stasiun Pandu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>NO</t>
   </si>
@@ -67,13 +67,16 @@
   </si>
   <si>
     <t>${table:pk.NILAI}</t>
+  </si>
+  <si>
+    <t>ASSET STASIUN PANDU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +92,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -164,11 +175,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -187,6 +216,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,33 +534,22 @@
     <col min="19" max="19" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -523,33 +557,20 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -557,7 +578,70 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/report/Custom Report - Asset Stasiun Pandu.xlsx
+++ b/report/Custom Report - Asset Stasiun Pandu.xlsx
@@ -69,7 +69,7 @@
     <t>${table:pk.NILAI}</t>
   </si>
   <si>
-    <t>ASSET STASIUN PANDU</t>
+    <t>ASSET STASIUN PANDU &amp; EQUIPMENT</t>
   </si>
 </sst>
 </file>
@@ -219,19 +219,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +517,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,21 +535,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -558,19 +558,19 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -603,11 +603,11 @@
       <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="13"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
